--- a/feedback_forms/testing_versions/dairy_digester_operator_feedback_v005_test_01.xlsx
+++ b/feedback_forms/testing_versions/dairy_digester_operator_feedback_v005_test_01.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD360DD4-99BC-4F69-A77F-D6333058AD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D77C2-1373-4706-BB60-09520F2D5224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="9XlrRNZkt4veb2IEVcYQMK5nk1zPleY2YqFEPHQmCHYRfTgjaGo3JO5xRBibgUooKNWZSkfEYxaTpSTU1PQeSA==" workbookSaltValue="hfIBQ/EqzYycTn9Dm3EshA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -1776,13 +1776,19 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2090,11 +2096,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2105,12 +2111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2118,8 +2124,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2128,71 +2134,71 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2201,89 +2207,93 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3645,8 +3655,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3923,7 +3933,10 @@
         <v>264</v>
       </c>
       <c r="C39" s="44"/>
-      <c r="D39" s="54"/>
+      <c r="D39" s="54" t="str">
+        <f>LEFT(B39, 50)</f>
+        <v>Q7.  Please provide date and time of the ground su</v>
+      </c>
       <c r="E39" s="26"/>
     </row>
     <row r="40" spans="2:5" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
@@ -3931,20 +3944,29 @@
         <v>24</v>
       </c>
       <c r="C40" s="45"/>
-      <c r="D40" s="53"/>
+      <c r="D40" s="53" t="str">
+        <f>LEFT(B40, 50)</f>
+        <v xml:space="preserve">Q8.  If no emission source was identified, please </v>
+      </c>
     </row>
     <row r="41" spans="2:5" s="19" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B41" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="53" t="str">
+        <f t="shared" ref="D41:D42" si="0">LEFT(B41, 50)</f>
+        <v>Q9:  Please provide the maximum concentration of m</v>
+      </c>
     </row>
     <row r="42" spans="2:5" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C42" s="45"/>
-      <c r="D42" s="53"/>
+      <c r="D42" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10.  Instrument used to perform monitoring (e.g.,</v>
+      </c>
     </row>
     <row r="43" spans="2:5" s="10" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="27" t="s">
@@ -3952,7 +3974,7 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="31" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:5" s="10" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3961,7 +3983,7 @@
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="31" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:5" s="10" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3969,7 +3991,10 @@
         <v>26</v>
       </c>
       <c r="C45" s="45"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="67" t="str">
+        <f t="shared" ref="D45" si="1">LEFT(B45, 50)</f>
+        <v>Q13.  Please provide a more detailed description o</v>
+      </c>
     </row>
     <row r="46" spans="2:5" s="10" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="59" t="s">
@@ -3977,14 +4002,17 @@
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="31" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:5" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B47" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="67" t="str">
+        <f t="shared" ref="D47" si="2">LEFT(B47, 50)</f>
+        <v>Q15.  Please provide a more detailed description o</v>
+      </c>
     </row>
     <row r="48" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="49" spans="2:5" s="23" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.5">
@@ -4002,20 +4030,26 @@
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="31" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="10" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B52" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="54" t="str">
+        <f t="shared" ref="D52:D53" si="3">LEFT(B52, 50)</f>
+        <v>Q17.  Date and time of repair, if complete.</v>
+      </c>
     </row>
     <row r="53" spans="2:5" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B53" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="53"/>
+      <c r="D53" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Q18.  Please describe what actions were taken to r</v>
+      </c>
     </row>
     <row r="54" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B54" s="45"/>
@@ -4571,25 +4605,37 @@
       <c r="B90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="53"/>
+      <c r="D90" s="53" t="str">
+        <f t="shared" ref="D90:D91" si="4">LEFT(B90, 50)</f>
+        <v>Q21.  What portion of manure is managed by anaerob</v>
+      </c>
     </row>
     <row r="91" spans="2:7" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B91" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="53"/>
+      <c r="D91" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Q22. If manure or biogas from this facility is tra</v>
+      </c>
     </row>
     <row r="92" spans="2:7" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B92" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="53"/>
+      <c r="D92" s="53" t="str">
+        <f t="shared" ref="D92" si="5">LEFT(B92, 50)</f>
+        <v>Q23. If manure or biogas from this facility is tra</v>
+      </c>
     </row>
     <row r="93" spans="2:7" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B93" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="53"/>
+      <c r="D93" s="53" t="str">
+        <f t="shared" ref="D93" si="6">LEFT(B93, 50)</f>
+        <v>Q24.  Please provide any additional information ab</v>
+      </c>
     </row>
     <row r="94" spans="2:7" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B94" s="45"/>
@@ -4602,7 +4648,10 @@
         <v>274</v>
       </c>
       <c r="C97" s="30"/>
-      <c r="D97" s="53"/>
+      <c r="D97" s="53" t="str">
+        <f t="shared" ref="D97" si="7">LEFT(B97, 50)</f>
+        <v>Q25.  Please provide any additional notes, comment</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ydyvWOw86B75hzuxfZ6c+35H93gbQoqGC3IvYtmCkeQviBqYPpAIRCaxkB5JQgB2iJvn0YeMxPLy22iufYTriQ==" saltValue="07ngdaGwcQCg2jJA3IvGJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -8524,6 +8573,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -8758,17 +8818,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
@@ -8778,6 +8827,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8796,17 +8856,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
